--- a/contact2.xlsx
+++ b/contact2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teppei/Dropbox/鉄兵/CODEforOSAKA/2019/20200312_COVID19/20200316/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B92A7B-CA8C-AF4F-836E-8290EE64864F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="460" windowWidth="16500" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,18 +83,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -143,7 +131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -159,10 +147,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -225,6 +210,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -287,10 +273,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$41</c:f>
+              <c:f>Sheet1!$A$3:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="1">
                   <c:v>43865</c:v>
                 </c:pt>
@@ -404,16 +390,37 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$41</c:f>
+              <c:f>Sheet1!$B$3:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -530,6 +537,27 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,10 +596,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$41</c:f>
+              <c:f>Sheet1!$A$3:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="1">
                   <c:v>43865</c:v>
                 </c:pt>
@@ -685,16 +713,37 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$41</c:f>
+              <c:f>Sheet1!$C$3:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -811,6 +860,27 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,6 +1039,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1595,13 +1666,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1881,29 +1946,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C41"/>
+  <dimension ref="A2:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -1912,422 +1977,499 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>43865</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>110</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>43866</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>95</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>43867</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>83</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>43868</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>77</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>43869</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>43870</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>43871</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>84</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>43872</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>43873</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>53</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>43874</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>77</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>43875</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>143</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>43876</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>43877</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>43878</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>281</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>43879</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>266</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>43880</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>313</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>43881</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>237</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>43882</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>252</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>430</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>43883</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>98</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>43884</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>84</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>43885</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>94</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>43886</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>460</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>641</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>43887</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>426</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>626</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>43888</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>401</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>703</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>43889</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>410</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>688</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>43890</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>127</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>43891</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>96</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>43892</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>564</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>878</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>43893</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>470</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>808</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>43894</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>407</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>862</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>43895</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>499</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>1058</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>43896</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>640</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>653</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>43897</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>144</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>43898</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>144</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>43899</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>834</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>865</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>43900</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>595</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>43901</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>603</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>930</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>43902</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>540</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>865</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B42" s="5">
+        <v>582</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B43" s="5">
+        <v>209</v>
+      </c>
+      <c r="C43" s="5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B44" s="5">
+        <v>121</v>
+      </c>
+      <c r="C44" s="5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B45" s="5">
+        <v>641</v>
+      </c>
+      <c r="C45" s="5">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B46" s="5">
+        <v>468</v>
+      </c>
+      <c r="C46" s="5">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B47" s="5">
+        <v>499</v>
+      </c>
+      <c r="C47" s="5">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B48" s="5">
+        <v>463</v>
+      </c>
+      <c r="C48" s="5">
+        <v>959</v>
       </c>
     </row>
   </sheetData>
